--- a/openapi/정당히스토리/정당히스토리.xlsx
+++ b/openapi/정당히스토리/정당히스토리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="4525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4531" uniqueCount="4531">
   <si>
     <t>김성태</t>
   </si>
@@ -14414,6 +14414,24 @@
   <si>
     <t>20160413/20160710/더불어민주당,20160711/20170912/무소속,20170913/-/더불어민주당</t>
   </si>
+  <si>
+    <t>20160413/20170328/더불어민주당,20170329/20170426/무소속,20170427/20171204/국민의당,20171205/-/무소속</t>
+  </si>
+  <si>
+    <t>20160413/20170212/새누리당,20170213/20180128/자유한국당,20180129/-/무소속</t>
+  </si>
+  <si>
+    <t>20160413/20170212/새누리당,20170213/20190530/자유한국당,20190531/-/무소속</t>
+  </si>
+  <si>
+    <t>20160413/20180723/정의당,20180724/-/무소속</t>
+  </si>
+  <si>
+    <t>20160413/20170619/더불어민주당,20170620/-/무소속</t>
+  </si>
+  <si>
+    <t>20160413/20180207/국민의당,20180208/-/무소속</t>
+  </si>
 </sst>
 </file>
 
@@ -14423,7 +14441,7 @@
     <numFmt numFmtId="64" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="65" formatCode="_-&quot;₩&quot;* #,##0_-;\\\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -14619,8 +14637,13 @@
       <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Comic Sans MS"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14813,12 +14836,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -15135,7 +15152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15214,14 +15231,26 @@
     <xf numFmtId="0" fontId="25" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -15541,10 +15570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C561"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A60" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -15560,7 +15589,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15571,7 +15600,7 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15582,7 +15611,7 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15593,7 +15622,7 @@
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15604,7 +15633,7 @@
       <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15615,7 +15644,7 @@
       <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15626,7 +15655,7 @@
       <c r="B7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15637,7 +15666,7 @@
       <c r="B8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15648,7 +15677,7 @@
       <c r="B9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15659,7 +15688,7 @@
       <c r="B10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="29" t="s">
         <v>4522</v>
       </c>
     </row>
@@ -15670,7 +15699,7 @@
       <c r="B11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="29" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15681,7 +15710,7 @@
       <c r="B12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="29" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15692,7 +15721,7 @@
       <c r="B13" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="29" t="s">
         <v>207</v>
       </c>
     </row>
@@ -15703,7 +15732,7 @@
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="29" t="s">
         <v>224</v>
       </c>
     </row>
@@ -15714,7 +15743,7 @@
       <c r="B15" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15725,7 +15754,7 @@
       <c r="B16" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="29" t="s">
         <v>253</v>
       </c>
     </row>
@@ -15736,7 +15765,7 @@
       <c r="B17" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="29" t="s">
         <v>265</v>
       </c>
     </row>
@@ -15747,8 +15776,8 @@
       <c r="B18" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>281</v>
+      <c r="C18" s="32" t="s">
+        <v>4525</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.000000" customHeight="1">
@@ -15758,7 +15787,7 @@
       <c r="B19" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15769,7 +15798,7 @@
       <c r="B20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15780,7 +15809,7 @@
       <c r="B21" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15791,7 +15820,7 @@
       <c r="B22" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="29" t="s">
         <v>348</v>
       </c>
     </row>
@@ -15802,7 +15831,7 @@
       <c r="B23" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15813,7 +15842,7 @@
       <c r="B24" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15824,7 +15853,7 @@
       <c r="B25" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15835,7 +15864,7 @@
       <c r="B26" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>406</v>
       </c>
     </row>
@@ -15846,7 +15875,7 @@
       <c r="B27" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="29" t="s">
         <v>421</v>
       </c>
     </row>
@@ -15857,7 +15886,7 @@
       <c r="B28" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15868,7 +15897,7 @@
       <c r="B29" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15879,7 +15908,7 @@
       <c r="B30" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15890,7 +15919,7 @@
       <c r="B31" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="29" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15901,8 +15930,8 @@
       <c r="B32" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>498</v>
+      <c r="C32" s="29" t="s">
+        <v>4526</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.000000" customHeight="1">
@@ -15912,7 +15941,7 @@
       <c r="B33" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15923,7 +15952,7 @@
       <c r="B34" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15934,7 +15963,7 @@
       <c r="B35" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="29" t="s">
         <v>543</v>
       </c>
     </row>
@@ -15945,7 +15974,7 @@
       <c r="B36" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15956,7 +15985,7 @@
       <c r="B37" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15967,7 +15996,7 @@
       <c r="B38" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="29" t="s">
         <v>586</v>
       </c>
     </row>
@@ -15978,7 +16007,7 @@
       <c r="B39" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15989,7 +16018,7 @@
       <c r="B40" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16000,7 +16029,7 @@
       <c r="B41" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16011,7 +16040,7 @@
       <c r="B42" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="29" t="s">
         <v>643</v>
       </c>
     </row>
@@ -16022,7 +16051,7 @@
       <c r="B43" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16033,7 +16062,7 @@
       <c r="B44" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="29" t="s">
         <v>670</v>
       </c>
     </row>
@@ -16044,7 +16073,7 @@
       <c r="B45" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="29" t="s">
         <v>685</v>
       </c>
     </row>
@@ -16055,7 +16084,7 @@
       <c r="B46" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16066,7 +16095,7 @@
       <c r="B47" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="29" t="s">
         <v>716</v>
       </c>
     </row>
@@ -16077,7 +16106,7 @@
       <c r="B48" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="29" t="s">
         <v>733</v>
       </c>
     </row>
@@ -16088,7 +16117,7 @@
       <c r="B49" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16099,7 +16128,7 @@
       <c r="B50" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="29" t="s">
         <v>759</v>
       </c>
     </row>
@@ -16110,7 +16139,7 @@
       <c r="B51" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16121,7 +16150,7 @@
       <c r="B52" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="29" t="s">
         <v>789</v>
       </c>
     </row>
@@ -16132,7 +16161,7 @@
       <c r="B53" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="29" t="s">
         <v>406</v>
       </c>
     </row>
@@ -16143,7 +16172,7 @@
       <c r="B54" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="29" t="s">
         <v>816</v>
       </c>
     </row>
@@ -16154,7 +16183,7 @@
       <c r="B55" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16165,7 +16194,7 @@
       <c r="B56" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16176,8 +16205,8 @@
       <c r="B57" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>861</v>
+      <c r="C57" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.000000" customHeight="1">
@@ -16187,7 +16216,7 @@
       <c r="B58" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16198,7 +16227,7 @@
       <c r="B59" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16209,7 +16238,7 @@
       <c r="B60" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16220,7 +16249,7 @@
       <c r="B61" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16231,7 +16260,7 @@
       <c r="B62" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16242,7 +16271,7 @@
       <c r="B63" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="29" t="s">
         <v>948</v>
       </c>
     </row>
@@ -16253,7 +16282,7 @@
       <c r="B64" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16264,7 +16293,7 @@
       <c r="B65" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="29" t="s">
         <v>982</v>
       </c>
     </row>
@@ -16275,7 +16304,7 @@
       <c r="B66" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="29" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -16286,8 +16315,8 @@
       <c r="B67" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>1015</v>
+      <c r="C67" s="29" t="s">
+        <v>4530</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.000000" customHeight="1">
@@ -16297,7 +16326,7 @@
       <c r="B68" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="29" t="s">
         <v>982</v>
       </c>
     </row>
@@ -16308,7 +16337,7 @@
       <c r="B69" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="29" t="s">
         <v>982</v>
       </c>
     </row>
@@ -16319,7 +16348,7 @@
       <c r="B70" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="29" t="s">
         <v>982</v>
       </c>
     </row>
@@ -16330,7 +16359,7 @@
       <c r="B71" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="29" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -16341,7 +16370,7 @@
       <c r="B72" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="29" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -16352,7 +16381,7 @@
       <c r="B73" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16363,7 +16392,7 @@
       <c r="B74" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16374,7 +16403,7 @@
       <c r="B75" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16385,7 +16414,7 @@
       <c r="B76" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16396,7 +16425,7 @@
       <c r="B77" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16407,7 +16436,7 @@
       <c r="B78" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16418,7 +16447,7 @@
       <c r="B79" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16429,7 +16458,7 @@
       <c r="B80" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="29" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -16440,7 +16469,7 @@
       <c r="B81" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16451,7 +16480,7 @@
       <c r="B82" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="29" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -16462,7 +16491,7 @@
       <c r="B83" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="29" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -16473,8 +16502,8 @@
       <c r="B84" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="C84" s="26" t="s">
-        <v>1260</v>
+      <c r="C84" s="29" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.000000" customHeight="1">
@@ -16484,7 +16513,7 @@
       <c r="B85" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="29" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -16495,7 +16524,7 @@
       <c r="B86" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="29" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -16506,7 +16535,7 @@
       <c r="B87" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="29" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -16517,7 +16546,7 @@
       <c r="B88" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16528,7 +16557,7 @@
       <c r="B89" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16539,7 +16568,7 @@
       <c r="B90" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16550,7 +16579,7 @@
       <c r="B91" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16561,7 +16590,7 @@
       <c r="B92" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16572,7 +16601,7 @@
       <c r="B93" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16583,7 +16612,7 @@
       <c r="B94" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16594,7 +16623,7 @@
       <c r="B95" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16605,7 +16634,7 @@
       <c r="B96" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="29" t="s">
         <v>1447</v>
       </c>
     </row>
@@ -16616,7 +16645,7 @@
       <c r="B97" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="29" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -16627,7 +16656,7 @@
       <c r="B98" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="29" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -16638,7 +16667,7 @@
       <c r="B99" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="29" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -16649,7 +16678,7 @@
       <c r="B100" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16660,7 +16689,7 @@
       <c r="B101" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16671,7 +16700,7 @@
       <c r="B102" s="7" t="s">
         <v>1531</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16682,7 +16711,7 @@
       <c r="B103" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16693,7 +16722,7 @@
       <c r="B104" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16704,7 +16733,7 @@
       <c r="B105" s="7" t="s">
         <v>1575</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16715,7 +16744,7 @@
       <c r="B106" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="29" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -16726,7 +16755,7 @@
       <c r="B107" s="7" t="s">
         <v>1604</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="29" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -16737,7 +16766,7 @@
       <c r="B108" s="7" t="s">
         <v>1621</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="29" t="s">
         <v>175</v>
       </c>
     </row>
@@ -16748,7 +16777,7 @@
       <c r="B109" s="7" t="s">
         <v>1636</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16759,7 +16788,7 @@
       <c r="B110" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16770,7 +16799,7 @@
       <c r="B111" s="7" t="s">
         <v>1666</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16781,7 +16810,7 @@
       <c r="B112" s="7" t="s">
         <v>1679</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16792,7 +16821,7 @@
       <c r="B113" s="7" t="s">
         <v>1695</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="29" t="s">
         <v>1703</v>
       </c>
     </row>
@@ -16803,7 +16832,7 @@
       <c r="B114" s="7" t="s">
         <v>1708</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="29" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -16814,7 +16843,7 @@
       <c r="B115" s="7" t="s">
         <v>1725</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16825,7 +16854,7 @@
       <c r="B116" s="7" t="s">
         <v>1741</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16836,7 +16865,7 @@
       <c r="B117" s="7" t="s">
         <v>1755</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16847,7 +16876,7 @@
       <c r="B118" s="7" t="s">
         <v>1768</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="29" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -16858,7 +16887,7 @@
       <c r="B119" s="7" t="s">
         <v>1779</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16869,7 +16898,7 @@
       <c r="B120" s="7" t="s">
         <v>1793</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16880,7 +16909,7 @@
       <c r="B121" s="7" t="s">
         <v>1809</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16891,7 +16920,7 @@
       <c r="B122" s="7" t="s">
         <v>1822</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16902,7 +16931,7 @@
       <c r="B123" s="7" t="s">
         <v>1835</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16913,7 +16942,7 @@
       <c r="B124" s="7" t="s">
         <v>1850</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16924,7 +16953,7 @@
       <c r="B125" s="7" t="s">
         <v>1863</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16935,7 +16964,7 @@
       <c r="B126" s="7" t="s">
         <v>1876</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16946,7 +16975,7 @@
       <c r="B127" s="7" t="s">
         <v>1892</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16957,7 +16986,7 @@
       <c r="B128" s="7" t="s">
         <v>1905</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="29" t="s">
         <v>1913</v>
       </c>
     </row>
@@ -16968,8 +16997,8 @@
       <c r="B129" s="7" t="s">
         <v>1920</v>
       </c>
-      <c r="C129" s="28" t="s">
-        <v>1928</v>
+      <c r="C129" s="29" t="s">
+        <v>4527</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.000000" customHeight="1">
@@ -16979,7 +17008,7 @@
       <c r="B130" s="7" t="s">
         <v>1934</v>
       </c>
-      <c r="C130" s="28" t="s">
+      <c r="C130" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16990,7 +17019,7 @@
       <c r="B131" s="7" t="s">
         <v>1949</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="29" t="s">
         <v>1957</v>
       </c>
     </row>
@@ -17001,7 +17030,7 @@
       <c r="B132" s="7" t="s">
         <v>1963</v>
       </c>
-      <c r="C132" s="28" t="s">
+      <c r="C132" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17012,7 +17041,7 @@
       <c r="B133" s="7" t="s">
         <v>1978</v>
       </c>
-      <c r="C133" s="28" t="s">
+      <c r="C133" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17023,7 +17052,7 @@
       <c r="B134" s="7" t="s">
         <v>1993</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C134" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17034,7 +17063,7 @@
       <c r="B135" s="7" t="s">
         <v>2010</v>
       </c>
-      <c r="C135" s="28" t="s">
+      <c r="C135" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17045,7 +17074,7 @@
       <c r="B136" s="7" t="s">
         <v>2023</v>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="C136" s="29" t="s">
         <v>406</v>
       </c>
     </row>
@@ -17056,7 +17085,7 @@
       <c r="B137" s="7" t="s">
         <v>2038</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="C137" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17067,7 +17096,7 @@
       <c r="B138" s="7" t="s">
         <v>2053</v>
       </c>
-      <c r="C138" s="28" t="s">
+      <c r="C138" s="29" t="s">
         <v>2062</v>
       </c>
     </row>
@@ -17078,7 +17107,7 @@
       <c r="B139" s="7" t="s">
         <v>2070</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="C139" s="29" t="s">
         <v>2080</v>
       </c>
     </row>
@@ -17089,7 +17118,7 @@
       <c r="B140" s="7" t="s">
         <v>2087</v>
       </c>
-      <c r="C140" s="28" t="s">
+      <c r="C140" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17100,7 +17129,7 @@
       <c r="B141" s="7" t="s">
         <v>2100</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17111,7 +17140,7 @@
       <c r="B142" s="7" t="s">
         <v>2111</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17122,7 +17151,7 @@
       <c r="B143" s="7" t="s">
         <v>2125</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17133,7 +17162,7 @@
       <c r="B144" s="7" t="s">
         <v>2138</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17144,7 +17173,7 @@
       <c r="B145" s="7" t="s">
         <v>2151</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="29" t="s">
         <v>2160</v>
       </c>
     </row>
@@ -17155,7 +17184,7 @@
       <c r="B146" s="7" t="s">
         <v>2166</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="29" t="s">
         <v>175</v>
       </c>
     </row>
@@ -17166,7 +17195,7 @@
       <c r="B147" s="7" t="s">
         <v>2180</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17177,7 +17206,7 @@
       <c r="B148" s="7" t="s">
         <v>2194</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="29" t="s">
         <v>2203</v>
       </c>
     </row>
@@ -17188,7 +17217,7 @@
       <c r="B149" s="7" t="s">
         <v>2209</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17199,7 +17228,7 @@
       <c r="B150" s="7" t="s">
         <v>2221</v>
       </c>
-      <c r="C150" s="28" t="s">
+      <c r="C150" s="29" t="s">
         <v>2229</v>
       </c>
     </row>
@@ -17210,7 +17239,7 @@
       <c r="B151" s="7" t="s">
         <v>2235</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="29" t="s">
         <v>2245</v>
       </c>
     </row>
@@ -17221,7 +17250,7 @@
       <c r="B152" s="7" t="s">
         <v>2249</v>
       </c>
-      <c r="C152" s="28" t="s">
+      <c r="C152" s="29" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -17232,7 +17261,7 @@
       <c r="B153" s="7" t="s">
         <v>2264</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="C153" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17243,7 +17272,7 @@
       <c r="B154" s="7" t="s">
         <v>2277</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="C154" s="29" t="s">
         <v>2160</v>
       </c>
     </row>
@@ -17254,7 +17283,7 @@
       <c r="B155" s="7" t="s">
         <v>2293</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17265,7 +17294,7 @@
       <c r="B156" s="7" t="s">
         <v>2308</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="C156" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17276,7 +17305,7 @@
       <c r="B157" s="7" t="s">
         <v>2321</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17287,7 +17316,7 @@
       <c r="B158" s="7" t="s">
         <v>2334</v>
       </c>
-      <c r="C158" s="28" t="s">
+      <c r="C158" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17298,7 +17327,7 @@
       <c r="B159" s="7" t="s">
         <v>2347</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17309,7 +17338,7 @@
       <c r="B160" s="7" t="s">
         <v>2358</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="29" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -17320,7 +17349,7 @@
       <c r="B161" s="7" t="s">
         <v>2373</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="C161" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17331,7 +17360,7 @@
       <c r="B162" s="7" t="s">
         <v>2386</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17342,7 +17371,7 @@
       <c r="B163" s="7" t="s">
         <v>2400</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17353,7 +17382,7 @@
       <c r="B164" s="7" t="s">
         <v>2414</v>
       </c>
-      <c r="C164" s="28" t="s">
+      <c r="C164" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17364,7 +17393,7 @@
       <c r="B165" s="7" t="s">
         <v>2428</v>
       </c>
-      <c r="C165" s="28" t="s">
+      <c r="C165" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17375,7 +17404,7 @@
       <c r="B166" s="7" t="s">
         <v>2443</v>
       </c>
-      <c r="C166" s="28" t="s">
+      <c r="C166" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17386,7 +17415,7 @@
       <c r="B167" s="7" t="s">
         <v>2456</v>
       </c>
-      <c r="C167" s="28" t="s">
+      <c r="C167" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17397,7 +17426,7 @@
       <c r="B168" s="7" t="s">
         <v>2471</v>
       </c>
-      <c r="C168" s="28" t="s">
+      <c r="C168" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17408,7 +17437,7 @@
       <c r="B169" s="7" t="s">
         <v>2486</v>
       </c>
-      <c r="C169" s="28" t="s">
+      <c r="C169" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17419,7 +17448,7 @@
       <c r="B170" s="7" t="s">
         <v>2499</v>
       </c>
-      <c r="C170" s="28" t="s">
+      <c r="C170" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17430,7 +17459,7 @@
       <c r="B171" s="7" t="s">
         <v>2514</v>
       </c>
-      <c r="C171" s="28" t="s">
+      <c r="C171" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17441,7 +17470,7 @@
       <c r="B172" s="7" t="s">
         <v>2528</v>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C172" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17452,7 +17481,7 @@
       <c r="B173" s="7" t="s">
         <v>2542</v>
       </c>
-      <c r="C173" s="28" t="s">
+      <c r="C173" s="29" t="s">
         <v>406</v>
       </c>
     </row>
@@ -17463,7 +17492,7 @@
       <c r="B174" s="7" t="s">
         <v>2557</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="29" t="s">
         <v>2567</v>
       </c>
     </row>
@@ -17474,7 +17503,7 @@
       <c r="B175" s="7" t="s">
         <v>2575</v>
       </c>
-      <c r="C175" s="28" t="s">
+      <c r="C175" s="29" t="s">
         <v>2583</v>
       </c>
     </row>
@@ -17485,7 +17514,7 @@
       <c r="B176" s="7" t="s">
         <v>2589</v>
       </c>
-      <c r="C176" s="28" t="s">
+      <c r="C176" s="29" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -17496,7 +17525,7 @@
       <c r="B177" s="7" t="s">
         <v>2607</v>
       </c>
-      <c r="C177" s="28" t="s">
+      <c r="C177" s="29" t="s">
         <v>2615</v>
       </c>
     </row>
@@ -17507,7 +17536,7 @@
       <c r="B178" s="7" t="s">
         <v>2622</v>
       </c>
-      <c r="C178" s="28" t="s">
+      <c r="C178" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17518,7 +17547,7 @@
       <c r="B179" s="7" t="s">
         <v>2636</v>
       </c>
-      <c r="C179" s="28" t="s">
+      <c r="C179" s="29" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -17529,7 +17558,7 @@
       <c r="B180" s="7" t="s">
         <v>2647</v>
       </c>
-      <c r="C180" s="28" t="s">
+      <c r="C180" s="29" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -17540,7 +17569,7 @@
       <c r="B181" s="7" t="s">
         <v>2660</v>
       </c>
-      <c r="C181" s="28" t="s">
+      <c r="C181" s="29" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -17551,7 +17580,7 @@
       <c r="B182" s="7" t="s">
         <v>2673</v>
       </c>
-      <c r="C182" s="28" t="s">
+      <c r="C182" s="29" t="s">
         <v>2682</v>
       </c>
     </row>
@@ -17562,7 +17591,7 @@
       <c r="B183" s="7" t="s">
         <v>2690</v>
       </c>
-      <c r="C183" s="28" t="s">
+      <c r="C183" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17573,7 +17602,7 @@
       <c r="B184" s="7" t="s">
         <v>2702</v>
       </c>
-      <c r="C184" s="28" t="s">
+      <c r="C184" s="29" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -17584,7 +17613,7 @@
       <c r="B185" s="7" t="s">
         <v>2717</v>
       </c>
-      <c r="C185" s="28" t="s">
+      <c r="C185" s="29" t="s">
         <v>2727</v>
       </c>
     </row>
@@ -17595,7 +17624,7 @@
       <c r="B186" s="7" t="s">
         <v>2732</v>
       </c>
-      <c r="C186" s="28" t="s">
+      <c r="C186" s="29" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -17606,7 +17635,7 @@
       <c r="B187" s="7" t="s">
         <v>2748</v>
       </c>
-      <c r="C187" s="28" t="s">
+      <c r="C187" s="29" t="s">
         <v>2756</v>
       </c>
     </row>
@@ -17617,7 +17646,7 @@
       <c r="B188" s="7" t="s">
         <v>2762</v>
       </c>
-      <c r="C188" s="28" t="s">
+      <c r="C188" s="29" t="s">
         <v>2771</v>
       </c>
     </row>
@@ -17628,7 +17657,7 @@
       <c r="B189" s="7" t="s">
         <v>2778</v>
       </c>
-      <c r="C189" s="28" t="s">
+      <c r="C189" s="29" t="s">
         <v>2787</v>
       </c>
     </row>
@@ -17639,7 +17668,7 @@
       <c r="B190" s="7" t="s">
         <v>2792</v>
       </c>
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17650,7 +17679,7 @@
       <c r="B191" s="7" t="s">
         <v>2805</v>
       </c>
-      <c r="C191" s="28" t="s">
+      <c r="C191" s="29" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -17661,7 +17690,7 @@
       <c r="B192" s="7" t="s">
         <v>2820</v>
       </c>
-      <c r="C192" s="28" t="s">
+      <c r="C192" s="29" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -17672,7 +17701,7 @@
       <c r="B193" s="7" t="s">
         <v>2834</v>
       </c>
-      <c r="C193" s="28" t="s">
+      <c r="C193" s="29" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -17683,7 +17712,7 @@
       <c r="B194" s="7" t="s">
         <v>2849</v>
       </c>
-      <c r="C194" s="28" t="s">
+      <c r="C194" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17694,7 +17723,7 @@
       <c r="B195" s="7" t="s">
         <v>2863</v>
       </c>
-      <c r="C195" s="28" t="s">
+      <c r="C195" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17705,7 +17734,7 @@
       <c r="B196" s="7" t="s">
         <v>2877</v>
       </c>
-      <c r="C196" s="28" t="s">
+      <c r="C196" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17716,7 +17745,7 @@
       <c r="B197" s="7" t="s">
         <v>2890</v>
       </c>
-      <c r="C197" s="28" t="s">
+      <c r="C197" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17727,7 +17756,7 @@
       <c r="B198" s="7" t="s">
         <v>2905</v>
       </c>
-      <c r="C198" s="28" t="s">
+      <c r="C198" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17738,7 +17767,7 @@
       <c r="B199" s="7" t="s">
         <v>2920</v>
       </c>
-      <c r="C199" s="28" t="s">
+      <c r="C199" s="29" t="s">
         <v>2929</v>
       </c>
     </row>
@@ -17749,7 +17778,7 @@
       <c r="B200" s="7" t="s">
         <v>2935</v>
       </c>
-      <c r="C200" s="28" t="s">
+      <c r="C200" s="29" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -17760,7 +17789,7 @@
       <c r="B201" s="2" t="s">
         <v>2948</v>
       </c>
-      <c r="C201" s="26" t="s">
+      <c r="C201" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17771,7 +17800,7 @@
       <c r="B202" s="2" t="s">
         <v>2960</v>
       </c>
-      <c r="C202" s="26" t="s">
+      <c r="C202" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17782,7 +17811,7 @@
       <c r="B203" s="2" t="s">
         <v>2974</v>
       </c>
-      <c r="C203" s="26" t="s">
+      <c r="C203" s="29" t="s">
         <v>2983</v>
       </c>
     </row>
@@ -17793,7 +17822,7 @@
       <c r="B204" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C204" s="26" t="s">
+      <c r="C204" s="29" t="s">
         <v>2994</v>
       </c>
     </row>
@@ -17804,7 +17833,7 @@
       <c r="B205" s="2" t="s">
         <v>3001</v>
       </c>
-      <c r="C205" s="26" t="s">
+      <c r="C205" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17815,7 +17844,7 @@
       <c r="B206" s="2" t="s">
         <v>3014</v>
       </c>
-      <c r="C206" s="26" t="s">
+      <c r="C206" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17826,7 +17855,7 @@
       <c r="B207" s="2" t="s">
         <v>3027</v>
       </c>
-      <c r="C207" s="26" t="s">
+      <c r="C207" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17837,8 +17866,8 @@
       <c r="B208" s="2" t="s">
         <v>3038</v>
       </c>
-      <c r="C208" s="26" t="s">
-        <v>3044</v>
+      <c r="C208" s="29" t="s">
+        <v>4528</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15.000000" customHeight="1">
@@ -17848,7 +17877,7 @@
       <c r="B209" s="2" t="s">
         <v>3052</v>
       </c>
-      <c r="C209" s="26" t="s">
+      <c r="C209" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17859,7 +17888,7 @@
       <c r="B210" s="2" t="s">
         <v>3065</v>
       </c>
-      <c r="C210" s="26" t="s">
+      <c r="C210" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17870,7 +17899,7 @@
       <c r="B211" s="2" t="s">
         <v>3077</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C211" s="29" t="s">
         <v>1957</v>
       </c>
     </row>
@@ -17881,7 +17910,7 @@
       <c r="B212" s="2" t="s">
         <v>3090</v>
       </c>
-      <c r="C212" s="26" t="s">
+      <c r="C212" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17892,7 +17921,7 @@
       <c r="B213" s="2" t="s">
         <v>3103</v>
       </c>
-      <c r="C213" s="26" t="s">
+      <c r="C213" s="29" t="s">
         <v>406</v>
       </c>
     </row>
@@ -17903,7 +17932,7 @@
       <c r="B214" s="2" t="s">
         <v>3114</v>
       </c>
-      <c r="C214" s="26" t="s">
+      <c r="C214" s="29" t="s">
         <v>406</v>
       </c>
     </row>
@@ -17914,7 +17943,7 @@
       <c r="B215" s="2" t="s">
         <v>3127</v>
       </c>
-      <c r="C215" s="28" t="s">
+      <c r="C215" s="29" t="s">
         <v>3134</v>
       </c>
     </row>
@@ -17925,7 +17954,7 @@
       <c r="B216" s="2" t="s">
         <v>3140</v>
       </c>
-      <c r="C216" s="26" t="s">
+      <c r="C216" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17936,7 +17965,7 @@
       <c r="B217" s="2" t="s">
         <v>3155</v>
       </c>
-      <c r="C217" s="28" t="s">
+      <c r="C217" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17947,7 +17976,7 @@
       <c r="B218" s="2" t="s">
         <v>3168</v>
       </c>
-      <c r="C218" s="26" t="s">
+      <c r="C218" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17958,7 +17987,7 @@
       <c r="B219" s="2" t="s">
         <v>3178</v>
       </c>
-      <c r="C219" s="26" t="s">
+      <c r="C219" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17969,7 +17998,7 @@
       <c r="B220" s="2" t="s">
         <v>3189</v>
       </c>
-      <c r="C220" s="26" t="s">
+      <c r="C220" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17980,7 +18009,7 @@
       <c r="B221" s="2" t="s">
         <v>3203</v>
       </c>
-      <c r="C221" s="28" t="s">
+      <c r="C221" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17991,7 +18020,7 @@
       <c r="B222" s="2" t="s">
         <v>3214</v>
       </c>
-      <c r="C222" s="26" t="s">
+      <c r="C222" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18002,7 +18031,7 @@
       <c r="B223" s="2" t="s">
         <v>3227</v>
       </c>
-      <c r="C223" s="28" t="s">
+      <c r="C223" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18013,7 +18042,7 @@
       <c r="B224" s="2" t="s">
         <v>3242</v>
       </c>
-      <c r="C224" s="28" t="s">
+      <c r="C224" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18024,7 +18053,7 @@
       <c r="B225" s="2" t="s">
         <v>3256</v>
       </c>
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18035,7 +18064,7 @@
       <c r="B226" s="2" t="s">
         <v>3271</v>
       </c>
-      <c r="C226" s="26" t="s">
+      <c r="C226" s="29" t="s">
         <v>3279</v>
       </c>
     </row>
@@ -18046,7 +18075,7 @@
       <c r="B227" s="2" t="s">
         <v>3286</v>
       </c>
-      <c r="C227" s="28" t="s">
+      <c r="C227" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18057,7 +18086,7 @@
       <c r="B228" s="2" t="s">
         <v>3301</v>
       </c>
-      <c r="C228" s="26" t="s">
+      <c r="C228" s="29" t="s">
         <v>3309</v>
       </c>
     </row>
@@ -18068,7 +18097,7 @@
       <c r="B229" s="2" t="s">
         <v>3316</v>
       </c>
-      <c r="C229" s="26" t="s">
+      <c r="C229" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18079,7 +18108,7 @@
       <c r="B230" s="2" t="s">
         <v>3328</v>
       </c>
-      <c r="C230" s="26" t="s">
+      <c r="C230" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18090,7 +18119,7 @@
       <c r="B231" s="2" t="s">
         <v>3342</v>
       </c>
-      <c r="C231" s="28" t="s">
+      <c r="C231" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18101,7 +18130,7 @@
       <c r="B232" s="2" t="s">
         <v>3357</v>
       </c>
-      <c r="C232" s="28" t="s">
+      <c r="C232" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18112,7 +18141,7 @@
       <c r="B233" s="2" t="s">
         <v>3372</v>
       </c>
-      <c r="C233" s="26" t="s">
+      <c r="C233" s="29" t="s">
         <v>4523</v>
       </c>
     </row>
@@ -18123,7 +18152,7 @@
       <c r="B234" s="2" t="s">
         <v>3388</v>
       </c>
-      <c r="C234" s="26" t="s">
+      <c r="C234" s="29" t="s">
         <v>4524</v>
       </c>
     </row>
@@ -18134,7 +18163,7 @@
       <c r="B235" s="2" t="s">
         <v>3402</v>
       </c>
-      <c r="C235" s="28" t="s">
+      <c r="C235" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18145,7 +18174,7 @@
       <c r="B236" s="2" t="s">
         <v>3415</v>
       </c>
-      <c r="C236" s="28" t="s">
+      <c r="C236" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18156,7 +18185,7 @@
       <c r="B237" s="2" t="s">
         <v>3428</v>
       </c>
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18167,7 +18196,7 @@
       <c r="B238" s="2" t="s">
         <v>3440</v>
       </c>
-      <c r="C238" s="26" t="s">
+      <c r="C238" s="29" t="s">
         <v>348</v>
       </c>
     </row>
@@ -18178,7 +18207,7 @@
       <c r="B239" s="2" t="s">
         <v>3454</v>
       </c>
-      <c r="C239" s="28" t="s">
+      <c r="C239" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18189,7 +18218,7 @@
       <c r="B240" s="2" t="s">
         <v>3468</v>
       </c>
-      <c r="C240" s="28" t="s">
+      <c r="C240" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18200,7 +18229,7 @@
       <c r="B241" s="2" t="s">
         <v>3483</v>
       </c>
-      <c r="C241" s="28" t="s">
+      <c r="C241" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18211,7 +18240,7 @@
       <c r="B242" s="2" t="s">
         <v>3496</v>
       </c>
-      <c r="C242" s="28" t="s">
+      <c r="C242" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18222,7 +18251,7 @@
       <c r="B243" s="2" t="s">
         <v>3512</v>
       </c>
-      <c r="C243" s="28" t="s">
+      <c r="C243" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18233,7 +18262,7 @@
       <c r="B244" s="2" t="s">
         <v>3528</v>
       </c>
-      <c r="C244" s="26" t="s">
+      <c r="C244" s="29" t="s">
         <v>3537</v>
       </c>
     </row>
@@ -18244,7 +18273,7 @@
       <c r="B245" s="2" t="s">
         <v>3545</v>
       </c>
-      <c r="C245" s="28" t="s">
+      <c r="C245" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18255,7 +18284,7 @@
       <c r="B246" s="2" t="s">
         <v>3561</v>
       </c>
-      <c r="C246" s="28" t="s">
+      <c r="C246" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18266,7 +18295,7 @@
       <c r="B247" s="2" t="s">
         <v>3577</v>
       </c>
-      <c r="C247" s="28" t="s">
+      <c r="C247" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18277,7 +18306,7 @@
       <c r="B248" s="2" t="s">
         <v>3591</v>
       </c>
-      <c r="C248" s="28" t="s">
+      <c r="C248" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18288,7 +18317,7 @@
       <c r="B249" s="2" t="s">
         <v>3603</v>
       </c>
-      <c r="C249" s="28" t="s">
+      <c r="C249" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18299,7 +18328,7 @@
       <c r="B250" s="2" t="s">
         <v>3618</v>
       </c>
-      <c r="C250" s="26" t="s">
+      <c r="C250" s="29" t="s">
         <v>3626</v>
       </c>
     </row>
@@ -18310,7 +18339,7 @@
       <c r="B251" s="2" t="s">
         <v>3632</v>
       </c>
-      <c r="C251" s="28" t="s">
+      <c r="C251" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18321,7 +18350,7 @@
       <c r="B252" s="2" t="s">
         <v>3643</v>
       </c>
-      <c r="C252" s="26" t="s">
+      <c r="C252" s="29" t="s">
         <v>3649</v>
       </c>
     </row>
@@ -18332,7 +18361,7 @@
       <c r="B253" s="2" t="s">
         <v>3657</v>
       </c>
-      <c r="C253" s="28" t="s">
+      <c r="C253" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18343,7 +18372,7 @@
       <c r="B254" s="2" t="s">
         <v>3670</v>
       </c>
-      <c r="C254" s="26" t="s">
+      <c r="C254" s="29" t="s">
         <v>3677</v>
       </c>
     </row>
@@ -18354,7 +18383,7 @@
       <c r="B255" s="2" t="s">
         <v>3682</v>
       </c>
-      <c r="C255" s="26" t="s">
+      <c r="C255" s="29" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -18365,7 +18394,7 @@
       <c r="B256" s="2" t="s">
         <v>3694</v>
       </c>
-      <c r="C256" s="26" t="s">
+      <c r="C256" s="29" t="s">
         <v>3700</v>
       </c>
     </row>
@@ -18376,7 +18405,7 @@
       <c r="B257" s="2" t="s">
         <v>3706</v>
       </c>
-      <c r="C257" s="28" t="s">
+      <c r="C257" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18387,7 +18416,7 @@
       <c r="B258" s="2" t="s">
         <v>3717</v>
       </c>
-      <c r="C258" s="26" t="s">
+      <c r="C258" s="29" t="s">
         <v>3722</v>
       </c>
     </row>
@@ -18398,7 +18427,7 @@
       <c r="B259" s="2" t="s">
         <v>3724</v>
       </c>
-      <c r="C259" s="26" t="s">
+      <c r="C259" s="29" t="s">
         <v>3732</v>
       </c>
     </row>
@@ -18409,7 +18438,7 @@
       <c r="B260" s="2" t="s">
         <v>3735</v>
       </c>
-      <c r="C260" s="26" t="s">
+      <c r="C260" s="29" t="s">
         <v>3743</v>
       </c>
     </row>
@@ -18420,7 +18449,7 @@
       <c r="B261" s="2" t="s">
         <v>3748</v>
       </c>
-      <c r="C261" s="26" t="s">
+      <c r="C261" s="29" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -18431,7 +18460,7 @@
       <c r="B262" s="2" t="s">
         <v>3760</v>
       </c>
-      <c r="C262" s="26" t="s">
+      <c r="C262" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18442,7 +18471,7 @@
       <c r="B263" s="2" t="s">
         <v>3772</v>
       </c>
-      <c r="C263" s="26" t="s">
+      <c r="C263" s="29" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -18453,7 +18482,7 @@
       <c r="B264" s="2" t="s">
         <v>3786</v>
       </c>
-      <c r="C264" s="26" t="s">
+      <c r="C264" s="29" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -18464,7 +18493,7 @@
       <c r="B265" s="2" t="s">
         <v>3799</v>
       </c>
-      <c r="C265" s="26" t="s">
+      <c r="C265" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18475,7 +18504,7 @@
       <c r="B266" s="2" t="s">
         <v>3813</v>
       </c>
-      <c r="C266" s="28" t="s">
+      <c r="C266" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18486,7 +18515,7 @@
       <c r="B267" s="2" t="s">
         <v>3823</v>
       </c>
-      <c r="C267" s="28" t="s">
+      <c r="C267" s="29" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -18497,7 +18526,7 @@
       <c r="B268" s="2" t="s">
         <v>3838</v>
       </c>
-      <c r="C268" s="28" t="s">
+      <c r="C268" s="29" t="s">
         <v>3844</v>
       </c>
     </row>
@@ -18508,7 +18537,7 @@
       <c r="B269" s="2" t="s">
         <v>3848</v>
       </c>
-      <c r="C269" s="26" t="s">
+      <c r="C269" s="29" t="s">
         <v>3700</v>
       </c>
     </row>
@@ -18519,7 +18548,7 @@
       <c r="B270" s="2" t="s">
         <v>3857</v>
       </c>
-      <c r="C270" s="28" t="s">
+      <c r="C270" s="29" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -18530,7 +18559,7 @@
       <c r="B271" s="2" t="s">
         <v>3867</v>
       </c>
-      <c r="C271" s="26" t="s">
+      <c r="C271" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18541,7 +18570,7 @@
       <c r="B272" s="2" t="s">
         <v>3880</v>
       </c>
-      <c r="C272" s="26" t="s">
+      <c r="C272" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18552,7 +18581,7 @@
       <c r="B273" s="2" t="s">
         <v>3893</v>
       </c>
-      <c r="C273" s="26" t="s">
+      <c r="C273" s="29" t="s">
         <v>3700</v>
       </c>
     </row>
@@ -18563,7 +18592,7 @@
       <c r="B274" s="2" t="s">
         <v>3907</v>
       </c>
-      <c r="C274" s="26" t="s">
+      <c r="C274" s="29" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -18574,7 +18603,7 @@
       <c r="B275" s="2" t="s">
         <v>3921</v>
       </c>
-      <c r="C275" s="28" t="s">
+      <c r="C275" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18585,8 +18614,8 @@
       <c r="B276" s="2" t="s">
         <v>3936</v>
       </c>
-      <c r="C276" s="26" t="s">
-        <v>3942</v>
+      <c r="C276" s="29" t="s">
+        <v>4529</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.000000" customHeight="1">
@@ -18596,7 +18625,7 @@
       <c r="B277" s="2" t="s">
         <v>3948</v>
       </c>
-      <c r="C277" s="26" t="s">
+      <c r="C277" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18607,7 +18636,7 @@
       <c r="B278" s="2" t="s">
         <v>3962</v>
       </c>
-      <c r="C278" s="26" t="s">
+      <c r="C278" s="29" t="s">
         <v>3970</v>
       </c>
     </row>
@@ -18618,7 +18647,7 @@
       <c r="B279" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C279" s="26" t="s">
+      <c r="C279" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18629,7 +18658,7 @@
       <c r="B280" s="2" t="s">
         <v>3989</v>
       </c>
-      <c r="C280" s="28" t="s">
+      <c r="C280" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18640,7 +18669,7 @@
       <c r="B281" s="2" t="s">
         <v>3999</v>
       </c>
-      <c r="C281" s="26" t="s">
+      <c r="C281" s="29" t="s">
         <v>4006</v>
       </c>
     </row>
@@ -18651,7 +18680,7 @@
       <c r="B282" s="2" t="s">
         <v>4012</v>
       </c>
-      <c r="C282" s="26" t="s">
+      <c r="C282" s="29" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -18662,7 +18691,7 @@
       <c r="B283" s="2" t="s">
         <v>4026</v>
       </c>
-      <c r="C283" s="26" t="s">
+      <c r="C283" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18673,7 +18702,7 @@
       <c r="B284" s="2" t="s">
         <v>4037</v>
       </c>
-      <c r="C284" s="26" t="s">
+      <c r="C284" s="29" t="s">
         <v>4044</v>
       </c>
     </row>
@@ -18684,7 +18713,7 @@
       <c r="B285" s="2" t="s">
         <v>4049</v>
       </c>
-      <c r="C285" s="26" t="s">
+      <c r="C285" s="29" t="s">
         <v>4057</v>
       </c>
     </row>
@@ -18695,7 +18724,7 @@
       <c r="B286" s="2" t="s">
         <v>4063</v>
       </c>
-      <c r="C286" s="26" t="s">
+      <c r="C286" s="29" t="s">
         <v>3700</v>
       </c>
     </row>
@@ -18706,7 +18735,7 @@
       <c r="B287" s="2" t="s">
         <v>4073</v>
       </c>
-      <c r="C287" s="26" t="s">
+      <c r="C287" s="29" t="s">
         <v>4079</v>
       </c>
     </row>
@@ -18717,7 +18746,7 @@
       <c r="B288" s="2" t="s">
         <v>4085</v>
       </c>
-      <c r="C288" s="26" t="s">
+      <c r="C288" s="29" t="s">
         <v>4092</v>
       </c>
     </row>
@@ -18728,7 +18757,7 @@
       <c r="B289" s="2" t="s">
         <v>4096</v>
       </c>
-      <c r="C289" s="26" t="s">
+      <c r="C289" s="29" t="s">
         <v>3700</v>
       </c>
     </row>
@@ -18739,7 +18768,7 @@
       <c r="B290" s="2" t="s">
         <v>4108</v>
       </c>
-      <c r="C290" s="28" t="s">
+      <c r="C290" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18750,7 +18779,7 @@
       <c r="B291" s="2" t="s">
         <v>4121</v>
       </c>
-      <c r="C291" s="26" t="s">
+      <c r="C291" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18761,7 +18790,7 @@
       <c r="B292" s="2" t="s">
         <v>4133</v>
       </c>
-      <c r="C292" s="28" t="s">
+      <c r="C292" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18772,7 +18801,7 @@
       <c r="B293" s="2" t="s">
         <v>4146</v>
       </c>
-      <c r="C293" s="26" t="s">
+      <c r="C293" s="29" t="s">
         <v>4153</v>
       </c>
     </row>
@@ -18783,7 +18812,7 @@
       <c r="B294" s="2" t="s">
         <v>4159</v>
       </c>
-      <c r="C294" s="26" t="s">
+      <c r="C294" s="29" t="s">
         <v>3700</v>
       </c>
     </row>
@@ -18794,7 +18823,7 @@
       <c r="B295" s="2" t="s">
         <v>4174</v>
       </c>
-      <c r="C295" s="28" t="s">
+      <c r="C295" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -18805,7 +18834,7 @@
       <c r="B296" s="2" t="s">
         <v>4187</v>
       </c>
-      <c r="C296" s="26" t="s">
+      <c r="C296" s="29" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -18816,7 +18845,7 @@
       <c r="B297" s="2" t="s">
         <v>4200</v>
       </c>
-      <c r="C297" s="26" t="s">
+      <c r="C297" s="29" t="s">
         <v>4207</v>
       </c>
     </row>
@@ -18827,7 +18856,7 @@
       <c r="B298" s="2" t="s">
         <v>4212</v>
       </c>
-      <c r="C298" s="26" t="s">
+      <c r="C298" s="29" t="s">
         <v>3700</v>
       </c>
     </row>
@@ -18838,7 +18867,7 @@
       <c r="B299" s="2" t="s">
         <v>4221</v>
       </c>
-      <c r="C299" s="26" t="s">
+      <c r="C299" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18849,7 +18878,7 @@
       <c r="B300" s="2" t="s">
         <v>4234</v>
       </c>
-      <c r="C300" s="26" t="s">
+      <c r="C300" s="29" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18860,7 +18889,7 @@
       <c r="B301" s="2" t="s">
         <v>4249</v>
       </c>
-      <c r="C301" s="28" t="s">
+      <c r="C301" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18871,7 +18900,7 @@
       <c r="B302" s="2" t="s">
         <v>4265</v>
       </c>
-      <c r="C302" s="26" t="s">
+      <c r="C302" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18882,7 +18911,7 @@
       <c r="B303" s="2" t="s">
         <v>4279</v>
       </c>
-      <c r="C303" s="28" t="s">
+      <c r="C303" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18893,7 +18922,7 @@
       <c r="B304" s="2" t="s">
         <v>4294</v>
       </c>
-      <c r="C304" s="28" t="s">
+      <c r="C304" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18904,7 +18933,7 @@
       <c r="B305" s="2" t="s">
         <v>4308</v>
       </c>
-      <c r="C305" s="28" t="s">
+      <c r="C305" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18915,7 +18944,7 @@
       <c r="B306" s="2" t="s">
         <v>4319</v>
       </c>
-      <c r="C306" s="28" t="s">
+      <c r="C306" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18926,7 +18955,7 @@
       <c r="B307" s="2" t="s">
         <v>4334</v>
       </c>
-      <c r="C307" s="28" t="s">
+      <c r="C307" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18937,7 +18966,7 @@
       <c r="B308" s="2" t="s">
         <v>4347</v>
       </c>
-      <c r="C308" s="26" t="s">
+      <c r="C308" s="29" t="s">
         <v>4355</v>
       </c>
     </row>
@@ -18948,7 +18977,7 @@
       <c r="B309" s="2" t="s">
         <v>4361</v>
       </c>
-      <c r="C309" s="26" t="s">
+      <c r="C309" s="29" t="s">
         <v>4369</v>
       </c>
     </row>
@@ -18959,7 +18988,7 @@
       <c r="B310" s="2" t="s">
         <v>4374</v>
       </c>
-      <c r="C310" s="28" t="s">
+      <c r="C310" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -18970,7 +18999,7 @@
       <c r="B311" s="2" t="s">
         <v>4386</v>
       </c>
-      <c r="C311" s="26" t="s">
+      <c r="C311" s="29" t="s">
         <v>4394</v>
       </c>
     </row>
@@ -18981,7 +19010,7 @@
       <c r="B312" s="2" t="s">
         <v>4398</v>
       </c>
-      <c r="C312" s="26" t="s">
+      <c r="C312" s="29" t="s">
         <v>4405</v>
       </c>
     </row>
@@ -18992,7 +19021,7 @@
       <c r="B313" s="2" t="s">
         <v>4413</v>
       </c>
-      <c r="C313" s="26" t="s">
+      <c r="C313" s="29" t="s">
         <v>4422</v>
       </c>
     </row>
@@ -19003,7 +19032,7 @@
       <c r="B314" s="2" t="s">
         <v>4430</v>
       </c>
-      <c r="C314" s="26" t="s">
+      <c r="C314" s="29" t="s">
         <v>4436</v>
       </c>
     </row>
@@ -19014,7 +19043,7 @@
       <c r="B315" s="2" t="s">
         <v>4443</v>
       </c>
-      <c r="C315" s="26" t="s">
+      <c r="C315" s="29" t="s">
         <v>4452</v>
       </c>
     </row>
@@ -19025,7 +19054,7 @@
       <c r="B316" s="2" t="s">
         <v>4460</v>
       </c>
-      <c r="C316" s="28" t="s">
+      <c r="C316" s="29" t="s">
         <v>4256</v>
       </c>
     </row>
@@ -19036,7 +19065,7 @@
       <c r="B317" s="2" t="s">
         <v>4472</v>
       </c>
-      <c r="C317" s="26" t="s">
+      <c r="C317" s="29" t="s">
         <v>4479</v>
       </c>
     </row>
@@ -19047,7 +19076,7 @@
       <c r="B318" s="2" t="s">
         <v>4486</v>
       </c>
-      <c r="C318" s="26" t="s">
+      <c r="C318" s="29" t="s">
         <v>4493</v>
       </c>
     </row>
@@ -19058,7 +19087,7 @@
       <c r="B319" s="2" t="s">
         <v>4499</v>
       </c>
-      <c r="C319" s="26" t="s">
+      <c r="C319" s="29" t="s">
         <v>4505</v>
       </c>
     </row>
@@ -19069,9 +19098,732 @@
       <c r="B320" s="2" t="s">
         <v>4511</v>
       </c>
-      <c r="C320" s="26" t="s">
+      <c r="C320" s="29" t="s">
         <v>4517</v>
       </c>
+    </row>
+    <row r="321" spans="3:3" ht="17.250000">
+      <c r="C321" s="31"/>
+    </row>
+    <row r="322" spans="3:3" ht="17.250000">
+      <c r="C322" s="31"/>
+    </row>
+    <row r="323" spans="3:3" ht="17.250000">
+      <c r="C323" s="31"/>
+    </row>
+    <row r="324" spans="3:3" ht="17.250000">
+      <c r="C324" s="31"/>
+    </row>
+    <row r="325" spans="3:3" ht="17.250000">
+      <c r="C325" s="31"/>
+    </row>
+    <row r="326" spans="3:3" ht="17.250000">
+      <c r="C326" s="31"/>
+    </row>
+    <row r="327" spans="3:3" ht="17.250000">
+      <c r="C327" s="31"/>
+    </row>
+    <row r="328" spans="3:3" ht="17.250000">
+      <c r="C328" s="31"/>
+    </row>
+    <row r="329" spans="3:3" ht="17.250000">
+      <c r="C329" s="31"/>
+    </row>
+    <row r="330" spans="3:3" ht="17.250000">
+      <c r="C330" s="31"/>
+    </row>
+    <row r="331" spans="3:3" ht="17.250000">
+      <c r="C331" s="31"/>
+    </row>
+    <row r="332" spans="3:3" ht="17.250000">
+      <c r="C332" s="31"/>
+    </row>
+    <row r="333" spans="3:3" ht="17.250000">
+      <c r="C333" s="31"/>
+    </row>
+    <row r="334" spans="3:3" ht="17.250000">
+      <c r="C334" s="31"/>
+    </row>
+    <row r="335" spans="3:3" ht="17.250000">
+      <c r="C335" s="31"/>
+    </row>
+    <row r="336" spans="3:3" ht="17.250000">
+      <c r="C336" s="31"/>
+    </row>
+    <row r="337" spans="3:3" ht="17.250000">
+      <c r="C337" s="31"/>
+    </row>
+    <row r="338" spans="3:3" ht="17.250000">
+      <c r="C338" s="31"/>
+    </row>
+    <row r="339" spans="3:3" ht="17.250000">
+      <c r="C339" s="31"/>
+    </row>
+    <row r="340" spans="3:3" ht="17.250000">
+      <c r="C340" s="31"/>
+    </row>
+    <row r="341" spans="3:3" ht="17.250000">
+      <c r="C341" s="31"/>
+    </row>
+    <row r="342" spans="3:3" ht="17.250000">
+      <c r="C342" s="31"/>
+    </row>
+    <row r="343" spans="3:3" ht="17.250000">
+      <c r="C343" s="31"/>
+    </row>
+    <row r="344" spans="3:3" ht="17.250000">
+      <c r="C344" s="31"/>
+    </row>
+    <row r="345" spans="3:3" ht="17.250000">
+      <c r="C345" s="31"/>
+    </row>
+    <row r="346" spans="3:3" ht="17.250000">
+      <c r="C346" s="31"/>
+    </row>
+    <row r="347" spans="3:3" ht="17.250000">
+      <c r="C347" s="31"/>
+    </row>
+    <row r="348" spans="3:3" ht="17.250000">
+      <c r="C348" s="31"/>
+    </row>
+    <row r="349" spans="3:3" ht="17.250000">
+      <c r="C349" s="31"/>
+    </row>
+    <row r="350" spans="3:3" ht="17.250000">
+      <c r="C350" s="31"/>
+    </row>
+    <row r="351" spans="3:3" ht="17.250000">
+      <c r="C351" s="31"/>
+    </row>
+    <row r="352" spans="3:3" ht="17.250000">
+      <c r="C352" s="31"/>
+    </row>
+    <row r="353" spans="3:3" ht="17.250000">
+      <c r="C353" s="31"/>
+    </row>
+    <row r="354" spans="3:3" ht="17.250000">
+      <c r="C354" s="31"/>
+    </row>
+    <row r="355" spans="3:3" ht="17.250000">
+      <c r="C355" s="31"/>
+    </row>
+    <row r="356" spans="3:3" ht="17.250000">
+      <c r="C356" s="31"/>
+    </row>
+    <row r="357" spans="3:3" ht="17.250000">
+      <c r="C357" s="31"/>
+    </row>
+    <row r="358" spans="3:3" ht="17.250000">
+      <c r="C358" s="31"/>
+    </row>
+    <row r="359" spans="3:3" ht="17.250000">
+      <c r="C359" s="31"/>
+    </row>
+    <row r="360" spans="3:3" ht="17.250000">
+      <c r="C360" s="31"/>
+    </row>
+    <row r="361" spans="3:3" ht="17.250000">
+      <c r="C361" s="31"/>
+    </row>
+    <row r="362" spans="3:3" ht="17.250000">
+      <c r="C362" s="31"/>
+    </row>
+    <row r="363" spans="3:3" ht="17.250000">
+      <c r="C363" s="31"/>
+    </row>
+    <row r="364" spans="3:3" ht="17.250000">
+      <c r="C364" s="31"/>
+    </row>
+    <row r="365" spans="3:3" ht="17.250000">
+      <c r="C365" s="31"/>
+    </row>
+    <row r="366" spans="3:3" ht="17.250000">
+      <c r="C366" s="31"/>
+    </row>
+    <row r="367" spans="3:3" ht="17.250000">
+      <c r="C367" s="31"/>
+    </row>
+    <row r="368" spans="3:3" ht="17.250000">
+      <c r="C368" s="31"/>
+    </row>
+    <row r="369" spans="3:3" ht="17.250000">
+      <c r="C369" s="31"/>
+    </row>
+    <row r="370" spans="3:3" ht="17.250000">
+      <c r="C370" s="31"/>
+    </row>
+    <row r="371" spans="3:3" ht="17.250000">
+      <c r="C371" s="31"/>
+    </row>
+    <row r="372" spans="3:3" ht="17.250000">
+      <c r="C372" s="31"/>
+    </row>
+    <row r="373" spans="3:3" ht="17.250000">
+      <c r="C373" s="31"/>
+    </row>
+    <row r="374" spans="3:3" ht="17.250000">
+      <c r="C374" s="31"/>
+    </row>
+    <row r="375" spans="3:3" ht="17.250000">
+      <c r="C375" s="31"/>
+    </row>
+    <row r="376" spans="3:3" ht="17.250000">
+      <c r="C376" s="31"/>
+    </row>
+    <row r="377" spans="3:3" ht="17.250000">
+      <c r="C377" s="31"/>
+    </row>
+    <row r="378" spans="3:3" ht="17.250000">
+      <c r="C378" s="31"/>
+    </row>
+    <row r="379" spans="3:3" ht="17.250000">
+      <c r="C379" s="31"/>
+    </row>
+    <row r="380" spans="3:3" ht="17.250000">
+      <c r="C380" s="31"/>
+    </row>
+    <row r="381" spans="3:3" ht="17.250000">
+      <c r="C381" s="31"/>
+    </row>
+    <row r="382" spans="3:3" ht="17.250000">
+      <c r="C382" s="31"/>
+    </row>
+    <row r="383" spans="3:3" ht="17.250000">
+      <c r="C383" s="31"/>
+    </row>
+    <row r="384" spans="3:3" ht="17.250000">
+      <c r="C384" s="31"/>
+    </row>
+    <row r="385" spans="3:3" ht="17.250000">
+      <c r="C385" s="31"/>
+    </row>
+    <row r="386" spans="3:3" ht="17.250000">
+      <c r="C386" s="31"/>
+    </row>
+    <row r="387" spans="3:3" ht="17.250000">
+      <c r="C387" s="31"/>
+    </row>
+    <row r="388" spans="3:3" ht="17.250000">
+      <c r="C388" s="31"/>
+    </row>
+    <row r="389" spans="3:3" ht="17.250000">
+      <c r="C389" s="31"/>
+    </row>
+    <row r="390" spans="3:3" ht="17.250000">
+      <c r="C390" s="31"/>
+    </row>
+    <row r="391" spans="3:3" ht="17.250000">
+      <c r="C391" s="31"/>
+    </row>
+    <row r="392" spans="3:3" ht="17.250000">
+      <c r="C392" s="31"/>
+    </row>
+    <row r="393" spans="3:3" ht="17.250000">
+      <c r="C393" s="31"/>
+    </row>
+    <row r="394" spans="3:3" ht="17.250000">
+      <c r="C394" s="31"/>
+    </row>
+    <row r="395" spans="3:3" ht="17.250000">
+      <c r="C395" s="31"/>
+    </row>
+    <row r="396" spans="3:3" ht="17.250000">
+      <c r="C396" s="31"/>
+    </row>
+    <row r="397" spans="3:3" ht="17.250000">
+      <c r="C397" s="31"/>
+    </row>
+    <row r="398" spans="3:3" ht="17.250000">
+      <c r="C398" s="31"/>
+    </row>
+    <row r="399" spans="3:3" ht="17.250000">
+      <c r="C399" s="31"/>
+    </row>
+    <row r="400" spans="3:3" ht="17.250000">
+      <c r="C400" s="31"/>
+    </row>
+    <row r="401" spans="3:3" ht="17.250000">
+      <c r="C401" s="31"/>
+    </row>
+    <row r="402" spans="3:3" ht="17.250000">
+      <c r="C402" s="31"/>
+    </row>
+    <row r="403" spans="3:3" ht="17.250000">
+      <c r="C403" s="31"/>
+    </row>
+    <row r="404" spans="3:3" ht="17.250000">
+      <c r="C404" s="31"/>
+    </row>
+    <row r="405" spans="3:3" ht="17.250000">
+      <c r="C405" s="31"/>
+    </row>
+    <row r="406" spans="3:3" ht="17.250000">
+      <c r="C406" s="31"/>
+    </row>
+    <row r="407" spans="3:3" ht="17.250000">
+      <c r="C407" s="31"/>
+    </row>
+    <row r="408" spans="3:3" ht="17.250000">
+      <c r="C408" s="31"/>
+    </row>
+    <row r="409" spans="3:3" ht="17.250000">
+      <c r="C409" s="31"/>
+    </row>
+    <row r="410" spans="3:3" ht="17.250000">
+      <c r="C410" s="31"/>
+    </row>
+    <row r="411" spans="3:3" ht="17.250000">
+      <c r="C411" s="31"/>
+    </row>
+    <row r="412" spans="3:3" ht="17.250000">
+      <c r="C412" s="31"/>
+    </row>
+    <row r="413" spans="3:3" ht="17.250000">
+      <c r="C413" s="31"/>
+    </row>
+    <row r="414" spans="3:3" ht="17.250000">
+      <c r="C414" s="31"/>
+    </row>
+    <row r="415" spans="3:3" ht="17.250000">
+      <c r="C415" s="31"/>
+    </row>
+    <row r="416" spans="3:3" ht="17.250000">
+      <c r="C416" s="31"/>
+    </row>
+    <row r="417" spans="3:3" ht="17.250000">
+      <c r="C417" s="31"/>
+    </row>
+    <row r="418" spans="3:3" ht="17.250000">
+      <c r="C418" s="31"/>
+    </row>
+    <row r="419" spans="3:3" ht="17.250000">
+      <c r="C419" s="31"/>
+    </row>
+    <row r="420" spans="3:3" ht="17.250000">
+      <c r="C420" s="31"/>
+    </row>
+    <row r="421" spans="3:3" ht="17.250000">
+      <c r="C421" s="31"/>
+    </row>
+    <row r="422" spans="3:3" ht="17.250000">
+      <c r="C422" s="31"/>
+    </row>
+    <row r="423" spans="3:3" ht="17.250000">
+      <c r="C423" s="31"/>
+    </row>
+    <row r="424" spans="3:3" ht="17.250000">
+      <c r="C424" s="31"/>
+    </row>
+    <row r="425" spans="3:3" ht="17.250000">
+      <c r="C425" s="31"/>
+    </row>
+    <row r="426" spans="3:3" ht="17.250000">
+      <c r="C426" s="31"/>
+    </row>
+    <row r="427" spans="3:3" ht="17.250000">
+      <c r="C427" s="31"/>
+    </row>
+    <row r="428" spans="3:3" ht="17.250000">
+      <c r="C428" s="31"/>
+    </row>
+    <row r="429" spans="3:3" ht="17.250000">
+      <c r="C429" s="31"/>
+    </row>
+    <row r="430" spans="3:3" ht="17.250000">
+      <c r="C430" s="31"/>
+    </row>
+    <row r="431" spans="3:3" ht="17.250000">
+      <c r="C431" s="31"/>
+    </row>
+    <row r="432" spans="3:3" ht="17.250000">
+      <c r="C432" s="31"/>
+    </row>
+    <row r="433" spans="3:3" ht="17.250000">
+      <c r="C433" s="31"/>
+    </row>
+    <row r="434" spans="3:3" ht="17.250000">
+      <c r="C434" s="31"/>
+    </row>
+    <row r="435" spans="3:3" ht="17.250000">
+      <c r="C435" s="31"/>
+    </row>
+    <row r="436" spans="3:3" ht="17.250000">
+      <c r="C436" s="31"/>
+    </row>
+    <row r="437" spans="3:3" ht="17.250000">
+      <c r="C437" s="31"/>
+    </row>
+    <row r="438" spans="3:3" ht="17.250000">
+      <c r="C438" s="31"/>
+    </row>
+    <row r="439" spans="3:3" ht="17.250000">
+      <c r="C439" s="31"/>
+    </row>
+    <row r="440" spans="3:3" ht="17.250000">
+      <c r="C440" s="31"/>
+    </row>
+    <row r="441" spans="3:3" ht="17.250000">
+      <c r="C441" s="31"/>
+    </row>
+    <row r="442" spans="3:3" ht="17.250000">
+      <c r="C442" s="31"/>
+    </row>
+    <row r="443" spans="3:3" ht="17.250000">
+      <c r="C443" s="31"/>
+    </row>
+    <row r="444" spans="3:3" ht="17.250000">
+      <c r="C444" s="31"/>
+    </row>
+    <row r="445" spans="3:3" ht="17.250000">
+      <c r="C445" s="31"/>
+    </row>
+    <row r="446" spans="3:3" ht="17.250000">
+      <c r="C446" s="31"/>
+    </row>
+    <row r="447" spans="3:3" ht="17.250000">
+      <c r="C447" s="31"/>
+    </row>
+    <row r="448" spans="3:3" ht="17.250000">
+      <c r="C448" s="31"/>
+    </row>
+    <row r="449" spans="3:3" ht="17.250000">
+      <c r="C449" s="31"/>
+    </row>
+    <row r="450" spans="3:3" ht="17.250000">
+      <c r="C450" s="31"/>
+    </row>
+    <row r="451" spans="3:3" ht="17.250000">
+      <c r="C451" s="31"/>
+    </row>
+    <row r="452" spans="3:3" ht="17.250000">
+      <c r="C452" s="31"/>
+    </row>
+    <row r="453" spans="3:3" ht="17.250000">
+      <c r="C453" s="31"/>
+    </row>
+    <row r="454" spans="3:3" ht="17.250000">
+      <c r="C454" s="31"/>
+    </row>
+    <row r="455" spans="3:3" ht="17.250000">
+      <c r="C455" s="31"/>
+    </row>
+    <row r="456" spans="3:3" ht="17.250000">
+      <c r="C456" s="31"/>
+    </row>
+    <row r="457" spans="3:3" ht="17.250000">
+      <c r="C457" s="31"/>
+    </row>
+    <row r="458" spans="3:3" ht="17.250000">
+      <c r="C458" s="31"/>
+    </row>
+    <row r="459" spans="3:3" ht="17.250000">
+      <c r="C459" s="31"/>
+    </row>
+    <row r="460" spans="3:3" ht="17.250000">
+      <c r="C460" s="31"/>
+    </row>
+    <row r="461" spans="3:3" ht="17.250000">
+      <c r="C461" s="31"/>
+    </row>
+    <row r="462" spans="3:3" ht="17.250000">
+      <c r="C462" s="31"/>
+    </row>
+    <row r="463" spans="3:3" ht="17.250000">
+      <c r="C463" s="31"/>
+    </row>
+    <row r="464" spans="3:3" ht="17.250000">
+      <c r="C464" s="31"/>
+    </row>
+    <row r="465" spans="3:3" ht="17.250000">
+      <c r="C465" s="31"/>
+    </row>
+    <row r="466" spans="3:3" ht="17.250000">
+      <c r="C466" s="31"/>
+    </row>
+    <row r="467" spans="3:3" ht="17.250000">
+      <c r="C467" s="31"/>
+    </row>
+    <row r="468" spans="3:3" ht="17.250000">
+      <c r="C468" s="31"/>
+    </row>
+    <row r="469" spans="3:3" ht="17.250000">
+      <c r="C469" s="31"/>
+    </row>
+    <row r="470" spans="3:3" ht="17.250000">
+      <c r="C470" s="31"/>
+    </row>
+    <row r="471" spans="3:3" ht="17.250000">
+      <c r="C471" s="31"/>
+    </row>
+    <row r="472" spans="3:3" ht="17.250000">
+      <c r="C472" s="31"/>
+    </row>
+    <row r="473" spans="3:3" ht="17.250000">
+      <c r="C473" s="31"/>
+    </row>
+    <row r="474" spans="3:3" ht="17.250000">
+      <c r="C474" s="31"/>
+    </row>
+    <row r="475" spans="3:3" ht="17.250000">
+      <c r="C475" s="31"/>
+    </row>
+    <row r="476" spans="3:3" ht="17.250000">
+      <c r="C476" s="31"/>
+    </row>
+    <row r="477" spans="3:3" ht="17.250000">
+      <c r="C477" s="31"/>
+    </row>
+    <row r="478" spans="3:3" ht="17.250000">
+      <c r="C478" s="31"/>
+    </row>
+    <row r="479" spans="3:3" ht="17.250000">
+      <c r="C479" s="31"/>
+    </row>
+    <row r="480" spans="3:3" ht="17.250000">
+      <c r="C480" s="31"/>
+    </row>
+    <row r="481" spans="3:3" ht="17.250000">
+      <c r="C481" s="31"/>
+    </row>
+    <row r="482" spans="3:3" ht="17.250000">
+      <c r="C482" s="31"/>
+    </row>
+    <row r="483" spans="3:3" ht="17.250000">
+      <c r="C483" s="31"/>
+    </row>
+    <row r="484" spans="3:3" ht="17.250000">
+      <c r="C484" s="31"/>
+    </row>
+    <row r="485" spans="3:3" ht="17.250000">
+      <c r="C485" s="31"/>
+    </row>
+    <row r="486" spans="3:3" ht="17.250000">
+      <c r="C486" s="31"/>
+    </row>
+    <row r="487" spans="3:3" ht="17.250000">
+      <c r="C487" s="31"/>
+    </row>
+    <row r="488" spans="3:3" ht="17.250000">
+      <c r="C488" s="31"/>
+    </row>
+    <row r="489" spans="3:3" ht="17.250000">
+      <c r="C489" s="31"/>
+    </row>
+    <row r="490" spans="3:3" ht="17.250000">
+      <c r="C490" s="31"/>
+    </row>
+    <row r="491" spans="3:3" ht="17.250000">
+      <c r="C491" s="31"/>
+    </row>
+    <row r="492" spans="3:3" ht="17.250000">
+      <c r="C492" s="31"/>
+    </row>
+    <row r="493" spans="3:3" ht="17.250000">
+      <c r="C493" s="31"/>
+    </row>
+    <row r="494" spans="3:3" ht="17.250000">
+      <c r="C494" s="31"/>
+    </row>
+    <row r="495" spans="3:3" ht="17.250000">
+      <c r="C495" s="31"/>
+    </row>
+    <row r="496" spans="3:3" ht="17.250000">
+      <c r="C496" s="31"/>
+    </row>
+    <row r="497" spans="3:3" ht="17.250000">
+      <c r="C497" s="31"/>
+    </row>
+    <row r="498" spans="3:3" ht="17.250000">
+      <c r="C498" s="31"/>
+    </row>
+    <row r="499" spans="3:3" ht="17.250000">
+      <c r="C499" s="31"/>
+    </row>
+    <row r="500" spans="3:3" ht="17.250000">
+      <c r="C500" s="31"/>
+    </row>
+    <row r="501" spans="3:3" ht="17.250000">
+      <c r="C501" s="31"/>
+    </row>
+    <row r="502" spans="3:3" ht="17.250000">
+      <c r="C502" s="31"/>
+    </row>
+    <row r="503" spans="3:3" ht="17.250000">
+      <c r="C503" s="31"/>
+    </row>
+    <row r="504" spans="3:3" ht="17.250000">
+      <c r="C504" s="31"/>
+    </row>
+    <row r="505" spans="3:3" ht="17.250000">
+      <c r="C505" s="31"/>
+    </row>
+    <row r="506" spans="3:3" ht="17.250000">
+      <c r="C506" s="31"/>
+    </row>
+    <row r="507" spans="3:3" ht="17.250000">
+      <c r="C507" s="31"/>
+    </row>
+    <row r="508" spans="3:3" ht="17.250000">
+      <c r="C508" s="31"/>
+    </row>
+    <row r="509" spans="3:3" ht="17.250000">
+      <c r="C509" s="31"/>
+    </row>
+    <row r="510" spans="3:3" ht="17.250000">
+      <c r="C510" s="31"/>
+    </row>
+    <row r="511" spans="3:3" ht="17.250000">
+      <c r="C511" s="31"/>
+    </row>
+    <row r="512" spans="3:3" ht="17.250000">
+      <c r="C512" s="31"/>
+    </row>
+    <row r="513" spans="3:3" ht="17.250000">
+      <c r="C513" s="31"/>
+    </row>
+    <row r="514" spans="3:3" ht="17.250000">
+      <c r="C514" s="31"/>
+    </row>
+    <row r="515" spans="3:3" ht="17.250000">
+      <c r="C515" s="31"/>
+    </row>
+    <row r="516" spans="3:3" ht="17.250000">
+      <c r="C516" s="31"/>
+    </row>
+    <row r="517" spans="3:3" ht="17.250000">
+      <c r="C517" s="31"/>
+    </row>
+    <row r="518" spans="3:3" ht="17.250000">
+      <c r="C518" s="31"/>
+    </row>
+    <row r="519" spans="3:3" ht="17.250000">
+      <c r="C519" s="31"/>
+    </row>
+    <row r="520" spans="3:3" ht="17.250000">
+      <c r="C520" s="31"/>
+    </row>
+    <row r="521" spans="3:3" ht="17.250000">
+      <c r="C521" s="31"/>
+    </row>
+    <row r="522" spans="3:3" ht="17.250000">
+      <c r="C522" s="31"/>
+    </row>
+    <row r="523" spans="3:3" ht="17.250000">
+      <c r="C523" s="31"/>
+    </row>
+    <row r="524" spans="3:3" ht="17.250000">
+      <c r="C524" s="31"/>
+    </row>
+    <row r="525" spans="3:3" ht="17.250000">
+      <c r="C525" s="31"/>
+    </row>
+    <row r="526" spans="3:3" ht="17.250000">
+      <c r="C526" s="31"/>
+    </row>
+    <row r="527" spans="3:3" ht="17.250000">
+      <c r="C527" s="31"/>
+    </row>
+    <row r="528" spans="3:3" ht="17.250000">
+      <c r="C528" s="31"/>
+    </row>
+    <row r="529" spans="3:3" ht="17.250000">
+      <c r="C529" s="31"/>
+    </row>
+    <row r="530" spans="3:3" ht="17.250000">
+      <c r="C530" s="31"/>
+    </row>
+    <row r="531" spans="3:3" ht="17.250000">
+      <c r="C531" s="31"/>
+    </row>
+    <row r="532" spans="3:3" ht="17.250000">
+      <c r="C532" s="31"/>
+    </row>
+    <row r="533" spans="3:3" ht="17.250000">
+      <c r="C533" s="31"/>
+    </row>
+    <row r="534" spans="3:3" ht="17.250000">
+      <c r="C534" s="31"/>
+    </row>
+    <row r="535" spans="3:3" ht="17.250000">
+      <c r="C535" s="31"/>
+    </row>
+    <row r="536" spans="3:3" ht="17.250000">
+      <c r="C536" s="31"/>
+    </row>
+    <row r="537" spans="3:3" ht="17.250000">
+      <c r="C537" s="31"/>
+    </row>
+    <row r="538" spans="3:3" ht="17.250000">
+      <c r="C538" s="31"/>
+    </row>
+    <row r="539" spans="3:3" ht="17.250000">
+      <c r="C539" s="31"/>
+    </row>
+    <row r="540" spans="3:3" ht="17.250000">
+      <c r="C540" s="31"/>
+    </row>
+    <row r="541" spans="3:3" ht="17.250000">
+      <c r="C541" s="31"/>
+    </row>
+    <row r="542" spans="3:3" ht="17.250000">
+      <c r="C542" s="31"/>
+    </row>
+    <row r="543" spans="3:3" ht="17.250000">
+      <c r="C543" s="31"/>
+    </row>
+    <row r="544" spans="3:3" ht="17.250000">
+      <c r="C544" s="31"/>
+    </row>
+    <row r="545" spans="3:3" ht="17.250000">
+      <c r="C545" s="31"/>
+    </row>
+    <row r="546" spans="3:3" ht="17.250000">
+      <c r="C546" s="31"/>
+    </row>
+    <row r="547" spans="3:3" ht="17.250000">
+      <c r="C547" s="31"/>
+    </row>
+    <row r="548" spans="3:3" ht="17.250000">
+      <c r="C548" s="31"/>
+    </row>
+    <row r="549" spans="3:3" ht="17.250000">
+      <c r="C549" s="31"/>
+    </row>
+    <row r="550" spans="3:3" ht="17.250000">
+      <c r="C550" s="31"/>
+    </row>
+    <row r="551" spans="3:3" ht="17.250000">
+      <c r="C551" s="31"/>
+    </row>
+    <row r="552" spans="3:3" ht="17.250000">
+      <c r="C552" s="31"/>
+    </row>
+    <row r="553" spans="3:3" ht="17.250000">
+      <c r="C553" s="31"/>
+    </row>
+    <row r="554" spans="3:3" ht="17.250000">
+      <c r="C554" s="31"/>
+    </row>
+    <row r="555" spans="3:3" ht="17.250000">
+      <c r="C555" s="31"/>
+    </row>
+    <row r="556" spans="3:3" ht="17.250000">
+      <c r="C556" s="31"/>
+    </row>
+    <row r="557" spans="3:3" ht="17.250000">
+      <c r="C557" s="31"/>
+    </row>
+    <row r="558" spans="3:3" ht="17.250000">
+      <c r="C558" s="31"/>
+    </row>
+    <row r="559" spans="3:3" ht="17.250000">
+      <c r="C559" s="31"/>
+    </row>
+    <row r="560" spans="3:3" ht="17.250000">
+      <c r="C560" s="31"/>
+    </row>
+    <row r="561" spans="3:3" ht="17.250000">
+      <c r="C561" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
